--- a/MainTop/17.01.2026 Таня Озон/print_print_sorted.xlsx
+++ b/MainTop/17.01.2026 Таня Озон/print_print_sorted.xlsx
@@ -5,17 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.01.2026 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\17.01.2026 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7AE78E-79BE-4941-BE2D-C3E21062EF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25523EB6-741B-4EDD-A8CF-CC504430465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -856,17 +867,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U121"/>
+  <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="Z125" sqref="Z125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
     <col min="18" max="18" width="15.85546875" customWidth="1"/>
     <col min="19" max="19" width="4.28515625" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" customWidth="1"/>
@@ -8096,6 +8107,68 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <f>SUM(B2:B121)</f>
+        <v>134</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ref="C122:P122" si="0">SUM(C2:C121)</f>
+        <v>62</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="0"/>
+        <v>1462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
